--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -403,10 +403,10 @@
         <v>5.15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007565109215480369</v>
+        <v>0.0234526151259141</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9810774531456</v>
+        <v>3524.402678342055</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -417,13 +417,13 @@
         <v>5.184422110552764</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0002450554777670214</v>
+        <v>0.003946930511001435</v>
       </c>
       <c r="C4" t="n">
-        <v>66.89307891454122</v>
+        <v>859.4306910718788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000870396140015692</v>
+        <v>5.593204090078555e-05</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>5.218844221105528</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0001054704198161302</v>
+        <v>0.00109306114684665</v>
       </c>
       <c r="C5" t="n">
-        <v>36.689971572759</v>
+        <v>324.5660978302594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002704982204437636</v>
+        <v>0.0002603460482186679</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>5.253266331658292</v>
       </c>
       <c r="B6" t="n">
-        <v>5.412472723228723e-05</v>
+        <v>0.0004156638004319115</v>
       </c>
       <c r="C6" t="n">
-        <v>22.92972010326723</v>
+        <v>158.5573421170161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005880425018607392</v>
+        <v>0.0007597622414226352</v>
       </c>
     </row>
     <row r="7">
@@ -459,13 +459,13 @@
         <v>5.287688442211055</v>
       </c>
       <c r="B7" t="n">
-        <v>3.127788794162269e-05</v>
+        <v>0.0001939691170462757</v>
       </c>
       <c r="C7" t="n">
-        <v>15.63926671779028</v>
+        <v>90.9588104663561</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01075880685470952</v>
+        <v>0.001721607222003532</v>
       </c>
     </row>
     <row r="8">
@@ -473,13 +473,13 @@
         <v>5.322110552763819</v>
       </c>
       <c r="B8" t="n">
-        <v>1.968531528009671e-05</v>
+        <v>0.0001041425895041922</v>
       </c>
       <c r="C8" t="n">
-        <v>11.35462823699416</v>
+        <v>58.12493641896108</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01767764935765652</v>
+        <v>0.003318614677616936</v>
       </c>
     </row>
     <row r="9">
@@ -487,13 +487,13 @@
         <v>5.356532663316584</v>
       </c>
       <c r="B9" t="n">
-        <v>1.321122200097969e-05</v>
+        <v>6.179759291799747e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>8.637831142890601</v>
+        <v>40.08048657847252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02694705421284362</v>
+        <v>0.005722976006348679</v>
       </c>
     </row>
     <row r="10">
@@ -501,13 +501,13 @@
         <v>5.390954773869347</v>
       </c>
       <c r="B10" t="n">
-        <v>9.319157781551342e-06</v>
+        <v>3.952892306490326e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.812975881166377</v>
+        <v>29.24433522675319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0388449722381396</v>
+        <v>0.009098629503623471</v>
       </c>
     </row>
     <row r="11">
@@ -515,13 +515,13 @@
         <v>5.425376884422111</v>
       </c>
       <c r="B11" t="n">
-        <v>6.84128504384829e-06</v>
+        <v>2.679322511768424e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.530870291358791</v>
+        <v>22.28284810493422</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05361428559953817</v>
+        <v>0.0135992416339667</v>
       </c>
     </row>
     <row r="12">
@@ -529,13 +529,13 @@
         <v>5.459798994974875</v>
       </c>
       <c r="B12" t="n">
-        <v>5.18804250601426e-06</v>
+        <v>1.901458259326684e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>4.596417784181263</v>
+        <v>17.57077057376633</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07146998464004226</v>
+        <v>0.01936438945054422</v>
       </c>
     </row>
     <row r="13">
@@ -543,13 +543,13 @@
         <v>5.494221105527639</v>
       </c>
       <c r="B13" t="n">
-        <v>4.041931384954769e-06</v>
+        <v>1.401097932196459e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.894744502158828</v>
+        <v>14.24314043543075</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09259266050242876</v>
+        <v>0.02652159362109893</v>
       </c>
     </row>
     <row r="14">
@@ -557,13 +557,13 @@
         <v>5.528643216080402</v>
       </c>
       <c r="B14" t="n">
-        <v>3.22179931409815e-06</v>
+        <v>1.064608435846014e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>3.35454602119085</v>
+        <v>11.81128328366072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.117132120499563</v>
+        <v>0.03518185646746855</v>
       </c>
     </row>
     <row r="15">
@@ -571,13 +571,13 @@
         <v>5.563065326633167</v>
       </c>
       <c r="B15" t="n">
-        <v>2.618449776204261e-06</v>
+        <v>8.302249954872961e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.929729906175439</v>
+        <v>9.982663884965387</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1452106324981455</v>
+        <v>0.04544248182736391</v>
       </c>
     </row>
     <row r="16">
@@ -585,13 +585,13 @@
         <v>5.59748743718593</v>
       </c>
       <c r="B16" t="n">
-        <v>2.164253913380086e-06</v>
+        <v>6.618182865211598e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.589663592637862</v>
+        <v>8.574181814343072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1769157514896385</v>
+        <v>0.05738571706527043</v>
       </c>
     </row>
     <row r="17">
@@ -599,13 +599,13 @@
         <v>5.631909547738694</v>
       </c>
       <c r="B17" t="n">
-        <v>1.815198861322052e-06</v>
+        <v>5.376829864696145e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.313054096576241</v>
+        <v>7.466651039287569</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2123190824538583</v>
+        <v>0.07108134718426051</v>
       </c>
     </row>
     <row r="18">
@@ -613,13 +613,13 @@
         <v>5.666331658291457</v>
       </c>
       <c r="B18" t="n">
-        <v>1.542207528362056e-06</v>
+        <v>4.440550190627046e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.084973903863346</v>
+        <v>6.580633262910545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2514641274097437</v>
+        <v>0.08658017904615799</v>
       </c>
     </row>
     <row r="19">
@@ -627,13 +627,13 @@
         <v>5.700753768844222</v>
       </c>
       <c r="B19" t="n">
-        <v>1.325225992590054e-06</v>
+        <v>3.720682369091973e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.894634622939897</v>
+        <v>5.860554616503967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2943721332202482</v>
+        <v>0.1039273588516562</v>
       </c>
     </row>
     <row r="20">
@@ -641,13 +641,13 @@
         <v>5.735175879396985</v>
       </c>
       <c r="B20" t="n">
-        <v>1.150434501487369e-06</v>
+        <v>3.157138575418102e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.734092661176508</v>
+        <v>5.267413394829562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3410453504803062</v>
+        <v>0.1231524582626911</v>
       </c>
     </row>
     <row r="21">
@@ -655,13 +655,13 @@
         <v>5.769597989949749</v>
       </c>
       <c r="B21" t="n">
-        <v>1.007799910384981e-06</v>
+        <v>2.709494584588692e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.597345390330168</v>
+        <v>4.77300166413078</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3914743039329931</v>
+        <v>0.1442739744138381</v>
       </c>
     </row>
     <row r="22">
@@ -669,13 +669,13 @@
         <v>5.804020100502512</v>
       </c>
       <c r="B22" t="n">
-        <v>8.90197184428826e-07</v>
+        <v>2.348736177555607e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.479985852135163</v>
+        <v>4.356495967304612</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4456036180915879</v>
+        <v>0.1673006471353485</v>
       </c>
     </row>
     <row r="23">
@@ -683,13 +683,13 @@
         <v>5.838442211055277</v>
       </c>
       <c r="B23" t="n">
-        <v>7.921354858784048e-07</v>
+        <v>2.054646237435376e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>1.378409605439233</v>
+        <v>4.002285056914847</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5034017228697805</v>
+        <v>0.1922314305960651</v>
       </c>
     </row>
     <row r="24">
@@ -697,13 +697,13 @@
         <v>5.872864321608041</v>
       </c>
       <c r="B24" t="n">
-        <v>7.09637098088394e-07</v>
+        <v>1.8121269812717e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>1.289894372922236</v>
+        <v>3.698486553316221</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5648064190590862</v>
+        <v>0.21905583458842</v>
       </c>
     </row>
     <row r="25">
@@ -711,13 +711,13 @@
         <v>5.907286432160804</v>
       </c>
       <c r="B25" t="n">
-        <v>6.396805514128094e-07</v>
+        <v>1.61013746327168e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>1.212282015810866</v>
+        <v>3.435918157976018</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6297434891046382</v>
+        <v>0.2477563902853288</v>
       </c>
     </row>
     <row r="26">
@@ -725,13 +725,13 @@
         <v>5.941708542713569</v>
       </c>
       <c r="B26" t="n">
-        <v>5.7987207795858e-07</v>
+        <v>1.440290743909451e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>1.143842590742467</v>
+        <v>3.20729509361655</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6981276676304253</v>
+        <v>0.2783142674477648</v>
       </c>
     </row>
     <row r="27">
@@ -739,13 +739,13 @@
         <v>5.976130653266332</v>
       </c>
       <c r="B27" t="n">
-        <v>5.283839082520539e-07</v>
+        <v>1.296420198422949e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>1.083167508027886</v>
+        <v>3.007244587772065</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7698707295122211</v>
+        <v>0.3106819524888819</v>
       </c>
     </row>
     <row r="28">
@@ -753,13 +753,13 @@
         <v>6.010552763819096</v>
       </c>
       <c r="B28" t="n">
-        <v>4.837871765365565e-07</v>
+        <v>1.173523994177015e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>1.029149534604253</v>
+        <v>2.830976944052371</v>
       </c>
       <c r="D28" t="n">
-        <v>0.844860881943301</v>
+        <v>0.3448359188461562</v>
       </c>
     </row>
     <row r="29">
@@ -767,13 +767,13 @@
         <v>6.04497487437186</v>
       </c>
       <c r="B29" t="n">
-        <v>4.44908949056812e-07</v>
+        <v>1.067853527810643e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9808203286757785</v>
+        <v>2.674898930929938</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9230010971795467</v>
+        <v>0.3807299869028523</v>
       </c>
     </row>
     <row r="30">
@@ -781,13 +781,13 @@
         <v>6.079396984924624</v>
       </c>
       <c r="B30" t="n">
-        <v>4.108323711592253e-07</v>
+        <v>9.76360220860829e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9374127968591386</v>
+        <v>2.536023962249235</v>
       </c>
       <c r="D30" t="n">
-        <v>1.004178229985778</v>
+        <v>0.4183181354526042</v>
       </c>
     </row>
     <row r="31">
@@ -795,13 +795,13 @@
         <v>6.113819095477387</v>
       </c>
       <c r="B31" t="n">
-        <v>3.808105432248416e-07</v>
+        <v>8.967003846594507e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8982971671954982</v>
+        <v>2.41191280109331</v>
       </c>
       <c r="D31" t="n">
-        <v>1.088265727893263</v>
+        <v>0.4575496569798612</v>
       </c>
     </row>
     <row r="32">
@@ -809,13 +809,13 @@
         <v>6.148241206030151</v>
       </c>
       <c r="B32" t="n">
-        <v>3.542361588754712e-07</v>
+        <v>8.269339690835369e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8629166066994608</v>
+        <v>2.300544116119319</v>
       </c>
       <c r="D32" t="n">
-        <v>1.175150178832254</v>
+        <v>0.4983705969841273</v>
       </c>
     </row>
     <row r="33">
@@ -823,13 +823,13 @@
         <v>6.182663316582915</v>
       </c>
       <c r="B33" t="n">
-        <v>3.306077839296602e-07</v>
+        <v>7.655334878886358e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8308171030519573</v>
+        <v>2.200234395036722</v>
       </c>
       <c r="D33" t="n">
-        <v>1.264704324032842</v>
+        <v>0.5407245726738271</v>
       </c>
     </row>
     <row r="34">
@@ -837,13 +837,13 @@
         <v>6.217085427135679</v>
       </c>
       <c r="B34" t="n">
-        <v>3.095074220108482e-07</v>
+        <v>7.112281161923521e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8016117488569081</v>
+        <v>2.109575241284121</v>
       </c>
       <c r="D34" t="n">
-        <v>1.356800253606211</v>
+        <v>0.584552063814642</v>
       </c>
     </row>
     <row r="35">
@@ -851,13 +851,13 @@
         <v>6.251507537688442</v>
       </c>
       <c r="B35" t="n">
-        <v>2.905929152715465e-07</v>
+        <v>6.629818768035614e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>0.774967617836973</v>
+        <v>2.02737480927953</v>
       </c>
       <c r="D35" t="n">
-        <v>1.451312294750559</v>
+        <v>0.62979253179535</v>
       </c>
     </row>
     <row r="36">
@@ -865,13 +865,13 @@
         <v>6.285929648241206</v>
       </c>
       <c r="B36" t="n">
-        <v>2.735770625548223e-07</v>
+        <v>6.199457880308541e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7506025983225127</v>
+        <v>1.95262064286381</v>
       </c>
       <c r="D36" t="n">
-        <v>1.5481069864627</v>
+        <v>0.6763832513862997</v>
       </c>
     </row>
     <row r="37">
@@ -879,13 +879,13 @@
         <v>6.32035175879397</v>
       </c>
       <c r="B37" t="n">
-        <v>2.582137970415754e-07</v>
+        <v>5.8140200715405e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7282664345489286</v>
+        <v>1.884456129403527</v>
       </c>
       <c r="D37" t="n">
-        <v>1.64705944647577</v>
+        <v>0.7242603248225475</v>
       </c>
     </row>
     <row r="38">
@@ -893,13 +893,13 @@
         <v>6.354773869346734</v>
       </c>
       <c r="B38" t="n">
-        <v>2.44305289126727e-07</v>
+        <v>5.467536251185528e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7077652281415429</v>
+        <v>1.822140919390906</v>
       </c>
       <c r="D38" t="n">
-        <v>1.748024763050918</v>
+        <v>0.7733592694451948</v>
       </c>
     </row>
     <row r="39">
@@ -907,13 +907,13 @@
         <v>6.389195979899498</v>
       </c>
       <c r="B39" t="n">
-        <v>2.316654771863896e-07</v>
+        <v>5.155008886797341e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6888917607274428</v>
+        <v>1.765038218661847</v>
       </c>
       <c r="D39" t="n">
-        <v>1.850889555196923</v>
+        <v>0.8236150031510175</v>
       </c>
     </row>
     <row r="40">
@@ -921,13 +921,13 @@
         <v>6.423618090452262</v>
       </c>
       <c r="B40" t="n">
-        <v>2.201483810233977e-07</v>
+        <v>4.872197798807615e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6714937977528525</v>
+        <v>1.71260010167951</v>
       </c>
       <c r="D40" t="n">
-        <v>1.955517761457923</v>
+        <v>0.8749617304504079</v>
       </c>
     </row>
     <row r="41">
@@ -935,13 +935,13 @@
         <v>6.458040201005026</v>
       </c>
       <c r="B41" t="n">
-        <v>2.096288028957637e-07</v>
+        <v>4.615448235586985e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6554301288937937</v>
+        <v>1.66434696287256</v>
       </c>
       <c r="D41" t="n">
-        <v>2.061785112958015</v>
+        <v>0.9273344621623317</v>
       </c>
     </row>
     <row r="42">
@@ -949,13 +949,13 @@
         <v>6.492462311557789</v>
       </c>
       <c r="B42" t="n">
-        <v>1.999939499502054e-07</v>
+        <v>4.38174494319298e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6405754152005726</v>
+        <v>1.619862795847817</v>
       </c>
       <c r="D42" t="n">
-        <v>2.169561282654507</v>
+        <v>0.9806675984756048</v>
       </c>
     </row>
     <row r="43">
@@ -963,13 +963,13 @@
         <v>6.526884422110554</v>
       </c>
       <c r="B43" t="n">
-        <v>1.911474070439163e-07</v>
+        <v>4.168298971824931e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6268211925284159</v>
+        <v>1.578751847758078</v>
       </c>
       <c r="D43" t="n">
-        <v>2.278721890813901</v>
+        <v>1.034901800350334</v>
       </c>
     </row>
     <row r="44">
@@ -977,13 +977,13 @@
         <v>6.561306532663317</v>
       </c>
       <c r="B44" t="n">
-        <v>1.83005299886674e-07</v>
+        <v>3.973067327091628e-07</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6140699061188163</v>
+        <v>1.54076162191347</v>
       </c>
       <c r="D44" t="n">
-        <v>2.389147608529967</v>
+        <v>1.089961172604381</v>
       </c>
     </row>
     <row r="45">
@@ -991,13 +991,13 @@
         <v>6.595728643216081</v>
       </c>
       <c r="B45" t="n">
-        <v>1.754976509633333e-07</v>
+        <v>3.793933033639257e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6022353489521891</v>
+        <v>1.505572034168858</v>
       </c>
       <c r="D45" t="n">
-        <v>2.500716303660668</v>
+        <v>1.145787802083852</v>
       </c>
     </row>
     <row r="46">
@@ -1005,13 +1005,13 @@
         <v>6.630150753768845</v>
       </c>
       <c r="B46" t="n">
-        <v>1.685572006463366e-07</v>
+        <v>3.62920168919122e-07</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5912403095927704</v>
+        <v>1.472925024517372</v>
       </c>
       <c r="D46" t="n">
-        <v>2.613311862619424</v>
+        <v>1.202320420050871</v>
       </c>
     </row>
     <row r="47">
@@ -1019,13 +1019,13 @@
         <v>6.664572864321609</v>
       </c>
       <c r="B47" t="n">
-        <v>1.621316759921194e-07</v>
+        <v>3.47737573497151e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5810157798218017</v>
+        <v>1.442607788306719</v>
       </c>
       <c r="D47" t="n">
-        <v>2.726819164883314</v>
+        <v>1.259495766270589</v>
       </c>
     </row>
     <row r="48">
@@ -1033,13 +1033,13 @@
         <v>6.698994974874372</v>
       </c>
       <c r="B48" t="n">
-        <v>1.561704559722119e-07</v>
+        <v>3.337147114314906e-07</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5715035781009359</v>
+        <v>1.414417296288509</v>
       </c>
       <c r="D48" t="n">
-        <v>2.841125328664225</v>
+        <v>1.317253993072111</v>
       </c>
     </row>
     <row r="49">
@@ -1047,13 +1047,13 @@
         <v>6.733417085427136</v>
       </c>
       <c r="B49" t="n">
-        <v>1.506285748506964e-07</v>
+        <v>3.207378345309133e-07</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5626414999304363</v>
+        <v>1.388179914922602</v>
       </c>
       <c r="D49" t="n">
-        <v>2.956120222205223</v>
+        <v>1.375535518478771</v>
       </c>
     </row>
     <row r="50">
@@ -1061,13 +1061,13 @@
         <v>6.767839195979899</v>
       </c>
       <c r="B50" t="n">
-        <v>1.454698224535366e-07</v>
+        <v>3.087053516886739e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5543859804795779</v>
+        <v>1.363736445765116</v>
       </c>
       <c r="D50" t="n">
-        <v>3.071698949085036</v>
+        <v>1.434282182350488</v>
       </c>
     </row>
     <row r="51">
@@ -1075,13 +1075,13 @@
         <v>6.802261306532664</v>
       </c>
       <c r="B51" t="n">
-        <v>1.40661923858709e-07</v>
+        <v>2.975285919321752e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5467000857542431</v>
+        <v>1.340946688861834</v>
       </c>
       <c r="D51" t="n">
-        <v>3.187757317420783</v>
+        <v>1.493437290767682</v>
       </c>
     </row>
     <row r="52">
@@ -1089,13 +1089,13 @@
         <v>6.836683417085427</v>
       </c>
       <c r="B52" t="n">
-        <v>1.361693439035841e-07</v>
+        <v>2.87130326817396e-07</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5395270365070928</v>
+        <v>1.319683373495253</v>
       </c>
       <c r="D52" t="n">
-        <v>3.304194325373583</v>
+        <v>1.552945314157578</v>
       </c>
     </row>
     <row r="53">
@@ -1103,13 +1103,13 @@
         <v>6.871105527638191</v>
       </c>
       <c r="B53" t="n">
-        <v>1.319678309744751e-07</v>
+        <v>2.774386265346079e-07</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5328373362783954</v>
+        <v>1.299832247217785</v>
       </c>
       <c r="D53" t="n">
-        <v>3.420915887382401</v>
+        <v>1.612752370603548</v>
       </c>
     </row>
     <row r="54">
@@ -1117,13 +1117,13 @@
         <v>6.905527638190955</v>
       </c>
       <c r="B54" t="n">
-        <v>1.280327129785292e-07</v>
+        <v>2.683919746629613e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5265971921548528</v>
+        <v>1.281289045630856</v>
       </c>
       <c r="D54" t="n">
-        <v>3.537821032027649</v>
+        <v>1.672806118730678</v>
       </c>
     </row>
     <row r="55">
@@ -1131,13 +1131,13 @@
         <v>6.939949748743719</v>
       </c>
       <c r="B55" t="n">
-        <v>1.243418402572444e-07</v>
+        <v>2.599356401874354e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5207768676609303</v>
+        <v>1.263959633559194</v>
       </c>
       <c r="D55" t="n">
-        <v>3.6548266764921</v>
+        <v>1.733055736010901</v>
       </c>
     </row>
     <row r="56">
@@ -1145,13 +1145,13 @@
         <v>6.974371859296483</v>
       </c>
       <c r="B56" t="n">
-        <v>1.208753964522409e-07</v>
+        <v>2.520178399262914e-07</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5153482639065835</v>
+        <v>1.24776029516081</v>
       </c>
       <c r="D56" t="n">
-        <v>3.771841183816618</v>
+        <v>1.793451949237512</v>
       </c>
     </row>
     <row r="57">
@@ -1159,13 +1159,13 @@
         <v>7.008793969849247</v>
       </c>
       <c r="B57" t="n">
-        <v>1.176159703176803e-07</v>
+        <v>2.445975514466013e-07</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5102863293494474</v>
+        <v>1.232609575443192</v>
       </c>
       <c r="D57" t="n">
-        <v>3.888782448398847</v>
+        <v>1.853946431155288</v>
       </c>
     </row>
     <row r="58">
@@ -1173,13 +1173,13 @@
         <v>7.043216080402011</v>
       </c>
       <c r="B58" t="n">
-        <v>1.145473882918812e-07</v>
+        <v>2.376299418300528e-07</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5055680620879826</v>
+        <v>1.218441607293981</v>
       </c>
       <c r="D58" t="n">
-        <v>4.005564754100252</v>
+        <v>1.914495318354007</v>
       </c>
     </row>
     <row r="59">
@@ -1187,13 +1187,13 @@
         <v>7.077638190954774</v>
       </c>
       <c r="B59" t="n">
-        <v>1.116563784392417e-07</v>
+        <v>2.310829402616546e-07</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5011724531546813</v>
+        <v>1.205191380895196</v>
       </c>
       <c r="D59" t="n">
-        <v>4.122115502699005</v>
+        <v>1.975051346803775</v>
       </c>
     </row>
     <row r="60">
@@ -1201,13 +1201,13 @@
         <v>7.112060301507539</v>
       </c>
       <c r="B60" t="n">
-        <v>1.089284678072311e-07</v>
+        <v>2.249218804033074e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4970800736625454</v>
+        <v>1.192794670341048</v>
       </c>
       <c r="D60" t="n">
-        <v>4.238357235140209</v>
+        <v>2.035571043557552</v>
       </c>
     </row>
     <row r="61">
@@ -1215,13 +1215,13 @@
         <v>7.146482412060302</v>
       </c>
       <c r="B61" t="n">
-        <v>1.063521263318661e-07</v>
+        <v>2.191178955964071e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4932726518011095</v>
+        <v>1.181204532550781</v>
       </c>
       <c r="D61" t="n">
-        <v>4.3542175462583</v>
+        <v>2.096016731167012</v>
       </c>
     </row>
     <row r="62">
@@ -1229,13 +1229,13 @@
         <v>7.180904522613066</v>
       </c>
       <c r="B62" t="n">
-        <v>1.039165727532048e-07</v>
+        <v>2.136442070528843e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4897342140044914</v>
+        <v>1.170367050621651</v>
       </c>
       <c r="D62" t="n">
-        <v>4.469630444054973</v>
+        <v>2.156345304384939</v>
       </c>
     </row>
     <row r="63">
@@ -1243,13 +1243,13 @@
         <v>7.21532663316583</v>
       </c>
       <c r="B63" t="n">
-        <v>1.016117785339525e-07</v>
+        <v>2.084768801007186e-07</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4864494599620856</v>
+        <v>1.160240367739379</v>
       </c>
       <c r="D63" t="n">
-        <v>4.584524227468381</v>
+        <v>2.216520784730573</v>
       </c>
     </row>
     <row r="64">
@@ -1257,13 +1257,13 @@
         <v>7.249748743718593</v>
       </c>
       <c r="B64" t="n">
-        <v>9.942897704053939e-08</v>
+        <v>2.035950627434154e-07</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4834044333585362</v>
+        <v>1.150778828831781</v>
       </c>
       <c r="D64" t="n">
-        <v>4.698839395781978</v>
+        <v>2.27650497331513</v>
       </c>
     </row>
     <row r="65">
@@ -1271,13 +1271,13 @@
         <v>7.284170854271357</v>
       </c>
       <c r="B65" t="n">
-        <v>9.735968128477017e-08</v>
+        <v>1.989744229352998e-07</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4805860443084848</v>
+        <v>1.141945619845531</v>
       </c>
       <c r="D65" t="n">
-        <v>4.812516536053491</v>
+        <v>2.336263874883804</v>
       </c>
     </row>
     <row r="66">
@@ -1285,13 +1285,13 @@
         <v>7.318592964824121</v>
       </c>
       <c r="B66" t="n">
-        <v>9.539667688729475e-08</v>
+        <v>1.946005262449118e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4779823989749513</v>
+        <v>1.13370525773296</v>
       </c>
       <c r="D66" t="n">
-        <v>4.925497129025948</v>
+        <v>2.395762921014524</v>
       </c>
     </row>
     <row r="67">
@@ -1299,13 +1299,13 @@
         <v>7.353015075376884</v>
       </c>
       <c r="B67" t="n">
-        <v>9.353278399528789e-08</v>
+        <v>1.904561316602371e-07</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4755830977007762</v>
+        <v>1.126024624081068</v>
       </c>
       <c r="D67" t="n">
-        <v>5.03773101072967</v>
+        <v>2.454969676453532</v>
       </c>
     </row>
     <row r="68">
@@ -1313,13 +1313,13 @@
         <v>7.387437185929649</v>
       </c>
       <c r="B68" t="n">
-        <v>9.176152377933037e-08</v>
+        <v>1.865250411202432e-07</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4733766947375216</v>
+        <v>1.118874434229357</v>
       </c>
       <c r="D68" t="n">
-        <v>5.149156267044786</v>
+        <v>2.513855585356882</v>
       </c>
     </row>
     <row r="69">
@@ -1327,13 +1327,13 @@
         <v>7.421859296482412</v>
       </c>
       <c r="B69" t="n">
-        <v>9.007731761615706e-08</v>
+        <v>1.827934484759578e-07</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4713543098319022</v>
+        <v>1.112224734230128</v>
       </c>
       <c r="D69" t="n">
-        <v>5.259732271994567</v>
+        <v>2.572389118519903</v>
       </c>
     </row>
     <row r="70">
@@ -1341,13 +1341,13 @@
         <v>7.456281407035176</v>
       </c>
       <c r="B70" t="n">
-        <v>8.847453087265166e-08</v>
+        <v>1.792487447418036e-07</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4695067593642211</v>
+        <v>1.106050969898569</v>
       </c>
       <c r="D70" t="n">
-        <v>5.369411382058352</v>
+        <v>2.630543497866473</v>
       </c>
     </row>
     <row r="71">
@@ -1355,13 +1355,13 @@
         <v>7.49070351758794</v>
       </c>
       <c r="B71" t="n">
-        <v>8.694839971925285e-08</v>
+        <v>1.758754528358349e-07</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467826441724044</v>
+        <v>1.100312026695356</v>
       </c>
       <c r="D71" t="n">
-        <v>5.478145697754651</v>
+        <v>2.688283344970427</v>
       </c>
     </row>
     <row r="72">
@@ -1369,13 +1369,13 @@
         <v>7.525125628140704</v>
       </c>
       <c r="B72" t="n">
-        <v>8.549445634371508e-08</v>
+        <v>1.726703856745979e-07</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4663051066984661</v>
+        <v>1.095022352052447</v>
       </c>
       <c r="D72" t="n">
-        <v>5.585897873812798</v>
+        <v>2.745604491204198</v>
       </c>
     </row>
     <row r="73">
@@ -1383,13 +1383,13 @@
         <v>7.559547738693468</v>
       </c>
       <c r="B73" t="n">
-        <v>8.410763800368654e-08</v>
+        <v>1.696181851733159e-07</v>
       </c>
       <c r="C73" t="n">
-        <v>0.464935159204776</v>
+        <v>1.090135352585242</v>
       </c>
       <c r="D73" t="n">
-        <v>5.692624816812206</v>
+        <v>2.802467354062399</v>
       </c>
     </row>
     <row r="74">
@@ -1397,13 +1397,13 @@
         <v>7.593969849246232</v>
       </c>
       <c r="B74" t="n">
-        <v>8.278510678580975e-08</v>
+        <v>1.667105257280972e-07</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4637110259467736</v>
+        <v>1.085636567741059</v>
       </c>
       <c r="D74" t="n">
-        <v>5.798295194846595</v>
+        <v>2.858852984059418</v>
       </c>
     </row>
     <row r="75">
@@ -1411,13 +1411,13 @@
         <v>7.628391959798996</v>
       </c>
       <c r="B75" t="n">
-        <v>8.152244344620561e-08</v>
+        <v>1.639389684513432e-07</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4626253935763056</v>
+        <v>1.081510060005912</v>
       </c>
       <c r="D75" t="n">
-        <v>5.902869544465851</v>
+        <v>2.914741880428614</v>
       </c>
     </row>
     <row r="76">
@@ -1425,13 +1425,13 @@
         <v>7.662814070351759</v>
       </c>
       <c r="B76" t="n">
-        <v>8.031678269054265e-08</v>
+        <v>1.61295367842376e-07</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4616730491358276</v>
+        <v>1.077732292000505</v>
       </c>
       <c r="D76" t="n">
-        <v>6.006317379158133</v>
+        <v>2.970109123149183</v>
       </c>
     </row>
     <row r="77">
@@ -1439,13 +1439,13 @@
         <v>7.697236180904524</v>
       </c>
       <c r="B77" t="n">
-        <v>7.916484754055192e-08</v>
+        <v>1.587719153736798e-07</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4608497084174181</v>
+        <v>1.074293050472056</v>
       </c>
       <c r="D77" t="n">
-        <v>6.108615317300408</v>
+        <v>3.024940100305814</v>
       </c>
     </row>
     <row r="78">
@@ -1453,13 +1453,13 @@
         <v>7.731658291457286</v>
       </c>
       <c r="B78" t="n">
-        <v>7.806276046796915e-08</v>
+        <v>1.56362202653538e-07</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4601455316710797</v>
+        <v>1.07117323734468</v>
       </c>
       <c r="D78" t="n">
-        <v>6.209710772985049</v>
+        <v>3.079212989961619</v>
       </c>
     </row>
     <row r="79">
@@ -1467,13 +1467,13 @@
         <v>7.766080402010051</v>
       </c>
       <c r="B79" t="n">
-        <v>7.700934442210618e-08</v>
+        <v>1.540599670210764e-07</v>
       </c>
       <c r="C79" t="n">
-        <v>0.459559990355537</v>
+        <v>1.068362432483512</v>
       </c>
       <c r="D79" t="n">
-        <v>6.309598443155378</v>
+        <v>3.132916079409303</v>
       </c>
     </row>
     <row r="80">
@@ -1481,13 +1481,13 @@
         <v>7.800502512562815</v>
       </c>
       <c r="B80" t="n">
-        <v>7.60013242730836e-08</v>
+        <v>1.51858962639608e-07</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4590886609658968</v>
+        <v>1.065845931894782</v>
       </c>
       <c r="D80" t="n">
-        <v>6.408259089858624</v>
+        <v>3.186030561832432</v>
       </c>
     </row>
     <row r="81">
@@ -1495,13 +1495,13 @@
         <v>7.834924623115578</v>
       </c>
       <c r="B81" t="n">
-        <v>7.503636504734137e-08</v>
+        <v>1.4975424112932e-07</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4587253923679184</v>
+        <v>1.063611442984833</v>
       </c>
       <c r="D81" t="n">
-        <v>6.505657367530729</v>
+        <v>3.238542351952699</v>
       </c>
     </row>
     <row r="82">
@@ -1509,13 +1509,13 @@
         <v>7.869346733668342</v>
       </c>
       <c r="B82" t="n">
-        <v>7.411209108631094e-08</v>
+        <v>1.477401249384998e-07</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4584661096300149</v>
+        <v>1.061645831979081</v>
       </c>
       <c r="D82" t="n">
-        <v>6.60176796843947</v>
+        <v>3.290435414695192</v>
       </c>
     </row>
     <row r="83">
@@ -1523,13 +1523,13 @@
         <v>7.903768844221106</v>
       </c>
       <c r="B83" t="n">
-        <v>7.322678615190157e-08</v>
+        <v>1.458115626578154e-07</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4583089920375937</v>
+        <v>1.059940715813457</v>
       </c>
       <c r="D83" t="n">
-        <v>6.696590385916508</v>
+        <v>3.341702040197416</v>
       </c>
     </row>
     <row r="84">
@@ -1537,13 +1537,13 @@
         <v>7.938190954773869</v>
       </c>
       <c r="B84" t="n">
-        <v>7.237843635938914e-08</v>
+        <v>1.439652567315422e-07</v>
       </c>
       <c r="C84" t="n">
-        <v>0.458250003385595</v>
+        <v>1.058485328547148</v>
       </c>
       <c r="D84" t="n">
-        <v>6.790104083636372</v>
+        <v>3.392327448293902</v>
       </c>
     </row>
     <row r="85">
@@ -1551,13 +1551,13 @@
         <v>7.972613065326634</v>
       </c>
       <c r="B85" t="n">
-        <v>7.156462008308738e-08</v>
+        <v>1.421959295464659e-07</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4582823559191889</v>
+        <v>1.057269759779247</v>
       </c>
       <c r="D85" t="n">
-        <v>6.882262511717658</v>
+        <v>3.442301404432522</v>
       </c>
     </row>
     <row r="86">
@@ -1565,13 +1565,13 @@
         <v>8.007035175879398</v>
       </c>
       <c r="B86" t="n">
-        <v>7.07841802264586e-08</v>
+        <v>1.405003101060264e-07</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4584059701441415</v>
+        <v>1.056284989051909</v>
       </c>
       <c r="D86" t="n">
-        <v>6.973076794119506</v>
+        <v>3.491614819293829</v>
       </c>
     </row>
     <row r="87">
@@ -1579,13 +1579,13 @@
         <v>8.041457286432161</v>
       </c>
       <c r="B87" t="n">
-        <v>7.003574757200169e-08</v>
+        <v>1.38874802376435e-07</v>
       </c>
       <c r="C87" t="n">
-        <v>0.458618708027796</v>
+        <v>1.0555233022922</v>
       </c>
       <c r="D87" t="n">
-        <v>7.062545762158512</v>
+        <v>3.540259265984882</v>
       </c>
     </row>
     <row r="88">
@@ -1593,13 +1593,13 @@
         <v>8.075879396984925</v>
       </c>
       <c r="B88" t="n">
-        <v>6.931732567523545e-08</v>
+        <v>1.37314814776509e-07</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4589144839489903</v>
+        <v>1.054972137531747</v>
       </c>
       <c r="D88" t="n">
-        <v>7.150623199828643</v>
+        <v>3.588220964305385</v>
       </c>
     </row>
     <row r="89">
@@ -1607,13 +1607,13 @@
         <v>8.110301507537688</v>
       </c>
       <c r="B89" t="n">
-        <v>6.862789379560347e-08</v>
+        <v>1.35819189704201e-07</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4592946621541014</v>
+        <v>1.054631559425241</v>
       </c>
       <c r="D89" t="n">
-        <v>7.237341792444758</v>
+        <v>3.635502106043171</v>
       </c>
     </row>
     <row r="90">
@@ -1621,13 +1621,13 @@
         <v>8.144723618090453</v>
       </c>
       <c r="B90" t="n">
-        <v>6.796592943982887e-08</v>
+        <v>1.343829641279482e-07</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4597540570259739</v>
+        <v>1.054486403836791</v>
       </c>
       <c r="D90" t="n">
-        <v>7.322664446196209</v>
+        <v>3.682084770259772</v>
       </c>
     </row>
     <row r="91">
@@ -1635,13 +1635,13 @@
         <v>8.179145728643217</v>
       </c>
       <c r="B91" t="n">
-        <v>6.733011123133983e-08</v>
+        <v>1.330043900674772e-07</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4602897693009254</v>
+        <v>1.054536104306457</v>
       </c>
       <c r="D91" t="n">
-        <v>7.406577635846441</v>
+        <v>3.727972716336811</v>
       </c>
     </row>
     <row r="92">
@@ -1649,13 +1649,13 @@
         <v>8.21356783919598</v>
       </c>
       <c r="B92" t="n">
-        <v>6.671939164361741e-08</v>
+        <v>1.316805069670478e-07</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4609013047664769</v>
+        <v>1.054771887392645</v>
       </c>
       <c r="D92" t="n">
-        <v>7.489095662700154</v>
+        <v>3.773157086845203</v>
       </c>
     </row>
     <row r="93">
@@ -1663,13 +1663,13 @@
         <v>8.247989949748744</v>
       </c>
       <c r="B93" t="n">
-        <v>6.613274876527627e-08</v>
+        <v>1.304091336504598e-07</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4615846864031943</v>
+        <v>1.055187814950364</v>
       </c>
       <c r="D93" t="n">
-        <v>7.570192780448839</v>
+        <v>3.817633473400273</v>
       </c>
     </row>
     <row r="94">
@@ -1677,13 +1677,13 @@
         <v>8.282412060301509</v>
       </c>
       <c r="B94" t="n">
-        <v>6.55689121349128e-08</v>
+        <v>1.291870440885172e-07</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4623400518013365</v>
+        <v>1.05577579769038</v>
       </c>
       <c r="D94" t="n">
-        <v>7.649888808665281</v>
+        <v>3.861393395983661</v>
       </c>
     </row>
     <row r="95">
@@ -1691,13 +1691,13 @@
         <v>8.316834170854271</v>
       </c>
       <c r="B95" t="n">
-        <v>6.502697247258709e-08</v>
+        <v>1.280130605247514e-07</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4631633621801169</v>
+        <v>1.056534651031327</v>
       </c>
       <c r="D95" t="n">
-        <v>7.728158045065356</v>
+        <v>3.904443276393326</v>
       </c>
     </row>
     <row r="96">
@@ -1705,13 +1705,13 @@
         <v>8.351256281407036</v>
       </c>
       <c r="B96" t="n">
-        <v>6.450591573876471e-08</v>
+        <v>1.268846609697754e-07</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4640533250153394</v>
+        <v>1.057455649169922</v>
       </c>
       <c r="D96" t="n">
-        <v>7.805000953326878</v>
+        <v>3.946771942689059</v>
       </c>
     </row>
     <row r="97">
@@ -1719,13 +1719,13 @@
         <v>8.3856783919598</v>
       </c>
       <c r="B97" t="n">
-        <v>6.400525878455955e-08</v>
+        <v>1.25799502196306e-07</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4650093592923392</v>
+        <v>1.058534615328921</v>
       </c>
       <c r="D97" t="n">
-        <v>7.880433825335183</v>
+        <v>3.988379218366616</v>
       </c>
     </row>
     <row r="98">
@@ -1733,13 +1733,13 @@
         <v>8.420100502512563</v>
       </c>
       <c r="B98" t="n">
-        <v>6.352380481210369e-08</v>
+        <v>1.247563876842055e-07</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4660290421779694</v>
+        <v>1.059767622621479</v>
       </c>
       <c r="D98" t="n">
-        <v>7.954446248193054</v>
+        <v>4.029264985868606</v>
       </c>
     </row>
     <row r="99">
@@ -1747,13 +1747,13 @@
         <v>8.454522613065327</v>
       </c>
       <c r="B99" t="n">
-        <v>6.306070504403825e-08</v>
+        <v>1.237529880855371e-07</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4671099900111284</v>
+        <v>1.061149232179905</v>
       </c>
       <c r="D99" t="n">
-        <v>8.027029819121383</v>
+        <v>4.069426333215072</v>
       </c>
     </row>
     <row r="100">
@@ -1761,13 +1761,13 @@
         <v>8.48894472361809</v>
       </c>
       <c r="B100" t="n">
-        <v>6.26155758803592e-08</v>
+        <v>1.227880407911325e-07</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4682527009559605</v>
+        <v>1.062676228522515</v>
       </c>
       <c r="D100" t="n">
-        <v>8.098209405345376</v>
+        <v>4.108864079119258</v>
       </c>
     </row>
     <row r="101">
@@ -1775,13 +1775,13 @@
         <v>8.523366834170854</v>
       </c>
       <c r="B101" t="n">
-        <v>6.218751201851085e-08</v>
+        <v>1.218595779459738e-07</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4694536837075511</v>
+        <v>1.064343521896538</v>
       </c>
       <c r="D101" t="n">
-        <v>8.167960288455207</v>
+        <v>4.147577251152063</v>
       </c>
     </row>
     <row r="102">
@@ -1789,13 +1789,13 @@
         <v>8.557788944723619</v>
       </c>
       <c r="B102" t="n">
-        <v>6.177573720719234e-08</v>
+        <v>1.209665597420084e-07</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4707127760148534</v>
+        <v>1.066147915667193</v>
       </c>
       <c r="D102" t="n">
-        <v>8.236304017077551</v>
+        <v>4.185567686489153</v>
       </c>
     </row>
     <row r="103">
@@ -1803,13 +1803,13 @@
         <v>8.592211055276383</v>
       </c>
       <c r="B103" t="n">
-        <v>6.137962777568729e-08</v>
+        <v>1.201072409438977e-07</v>
       </c>
       <c r="C103" t="n">
-        <v>0.472027800516587</v>
+        <v>1.068085564116971</v>
       </c>
       <c r="D103" t="n">
-        <v>8.303232147763257</v>
+        <v>4.222834241464305</v>
       </c>
     </row>
     <row r="104">
@@ -1817,13 +1817,13 @@
         <v>8.626633165829146</v>
       </c>
       <c r="B104" t="n">
-        <v>6.099887627095868e-08</v>
+        <v>1.192797925483346e-07</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4733987381563817</v>
+        <v>1.070148898508073</v>
       </c>
       <c r="D104" t="n">
-        <v>8.368762654228995</v>
+        <v>4.259368889246765</v>
       </c>
     </row>
     <row r="105">
@@ -1831,13 +1831,13 @@
         <v>8.66105527638191</v>
       </c>
       <c r="B105" t="n">
-        <v>6.063268857739824e-08</v>
+        <v>1.184847701525817e-07</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4748234946006735</v>
+        <v>1.07234608189605</v>
       </c>
       <c r="D105" t="n">
-        <v>8.432891360247833</v>
+        <v>4.295201613676602</v>
       </c>
     </row>
     <row r="106">
@@ -1845,13 +1845,13 @@
         <v>8.695477386934673</v>
       </c>
       <c r="B106" t="n">
-        <v>6.028034287671633e-08</v>
+        <v>1.177191427885227e-07</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4763009302734551</v>
+        <v>1.074662594669371</v>
       </c>
       <c r="D106" t="n">
-        <v>8.495622177530754</v>
+        <v>4.330306271471102</v>
       </c>
     </row>
     <row r="107">
@@ -1859,13 +1859,13 @@
         <v>8.729899497487438</v>
       </c>
       <c r="B107" t="n">
-        <v>5.994166679737183e-08</v>
+        <v>1.169820887054655e-07</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4778303773799152</v>
+        <v>1.077097963442738</v>
       </c>
       <c r="D107" t="n">
-        <v>8.556967748420071</v>
+        <v>4.364691307954404</v>
       </c>
     </row>
     <row r="108">
@@ -1873,13 +1873,13 @@
         <v>8.764321608040202</v>
       </c>
       <c r="B108" t="n">
-        <v>5.961601036123747e-08</v>
+        <v>1.162739217796046e-07</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4794111905412871</v>
+        <v>1.079658454388738</v>
       </c>
       <c r="D108" t="n">
-        <v>8.616941963006742</v>
+        <v>4.398383097319475</v>
       </c>
     </row>
     <row r="109">
@@ -1887,13 +1887,13 @@
         <v>8.798743718592965</v>
       </c>
       <c r="B109" t="n">
-        <v>5.930292026635948e-08</v>
+        <v>1.155905768760496e-07</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4810411185101122</v>
+        <v>1.082319621433894</v>
       </c>
       <c r="D109" t="n">
-        <v>8.675529061017567</v>
+        <v>4.431328423847944</v>
       </c>
     </row>
     <row r="110">
@@ -1901,13 +1901,13 @@
         <v>8.833165829145729</v>
       </c>
       <c r="B110" t="n">
-        <v>5.900183117245757e-08</v>
+        <v>1.149336902102679e-07</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4827201304806933</v>
+        <v>1.085099019265194</v>
       </c>
       <c r="D110" t="n">
-        <v>8.732754815783549</v>
+        <v>4.46358355671928</v>
       </c>
     </row>
     <row r="111">
@@ -1915,13 +1915,13 @@
         <v>8.867587939698492</v>
       </c>
       <c r="B111" t="n">
-        <v>5.871247135434742e-08</v>
+        <v>1.143015724403226e-07</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4844472958700611</v>
+        <v>1.087987369050714</v>
       </c>
       <c r="D111" t="n">
-        <v>8.788624273132914</v>
+        <v>4.495134002439713</v>
       </c>
     </row>
     <row r="112">
@@ -1929,13 +1929,13 @@
         <v>8.902010050251256</v>
       </c>
       <c r="B112" t="n">
-        <v>5.843445683539449e-08</v>
+        <v>1.136934389392737e-07</v>
       </c>
       <c r="C112" t="n">
-        <v>0.48622172289629</v>
+        <v>1.090980855566127</v>
       </c>
       <c r="D112" t="n">
-        <v>8.843147626775561</v>
+        <v>4.525979768401483</v>
       </c>
     </row>
     <row r="113">
@@ -1943,13 +1943,13 @@
         <v>8.936432160804021</v>
       </c>
       <c r="B113" t="n">
-        <v>5.816726298725548e-08</v>
+        <v>1.131083748934527e-07</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4880422174998657</v>
+        <v>1.094080763343798</v>
       </c>
       <c r="D113" t="n">
-        <v>8.896327630951136</v>
+        <v>4.556135206548617</v>
       </c>
     </row>
     <row r="114">
@@ -1957,13 +1957,13 @@
         <v>8.970854271356785</v>
       </c>
       <c r="B114" t="n">
-        <v>5.791065020204166e-08</v>
+        <v>1.125457733213145e-07</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4899085347249665</v>
+        <v>1.097281524604498</v>
       </c>
       <c r="D114" t="n">
-        <v>8.948180910775857</v>
+        <v>4.58559522178312</v>
       </c>
     </row>
     <row r="115">
@@ -1971,13 +1971,13 @@
         <v>9.005276381909548</v>
       </c>
       <c r="B115" t="n">
-        <v>5.766432513796088e-08</v>
+        <v>1.120056760180593e-07</v>
       </c>
       <c r="C115" t="n">
-        <v>0.49182059734914</v>
+        <v>1.100593283359459</v>
       </c>
       <c r="D115" t="n">
-        <v>8.998730455479379</v>
+        <v>4.614401743892488</v>
       </c>
     </row>
     <row r="116">
@@ -1985,13 +1985,13 @@
         <v>9.039698492462312</v>
       </c>
       <c r="B116" t="n">
-        <v>5.742759722815387e-08</v>
+        <v>1.114849815040178e-07</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4937753223210828</v>
+        <v>1.103992804327247</v>
       </c>
       <c r="D116" t="n">
-        <v>9.047946300981097</v>
+        <v>4.642493869122408</v>
       </c>
     </row>
     <row r="117">
@@ -1999,13 +1999,13 @@
         <v>9.074120603015075</v>
       </c>
       <c r="B117" t="n">
-        <v>5.720049347215163e-08</v>
+        <v>1.109842860096527e-07</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4957741298996637</v>
+        <v>1.10748805170997</v>
       </c>
       <c r="D117" t="n">
-        <v>9.09587509359466</v>
+        <v>4.669909465700541</v>
       </c>
     </row>
     <row r="118">
@@ -2013,13 +2013,13 @@
         <v>9.108542713567839</v>
       </c>
       <c r="B118" t="n">
-        <v>5.698265941686456e-08</v>
+        <v>1.105030836791452e-07</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4978156539222104</v>
+        <v>1.111076952088424</v>
       </c>
       <c r="D118" t="n">
-        <v>9.142515605850525</v>
+        <v>4.696650767993708</v>
       </c>
     </row>
     <row r="119">
@@ -2027,13 +2027,13 @@
         <v>9.142964824120604</v>
       </c>
       <c r="B119" t="n">
-        <v>5.677361765459213e-08</v>
+        <v>1.100406858962128e-07</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4998993487092349</v>
+        <v>1.114757783795036</v>
       </c>
       <c r="D119" t="n">
-        <v>9.187879337984082</v>
+        <v>4.722724203429236</v>
       </c>
     </row>
     <row r="120">
@@ -2041,13 +2041,13 @@
         <v>9.177386934673368</v>
       </c>
       <c r="B120" t="n">
-        <v>5.657326751769524e-08</v>
+        <v>1.095961244261598e-07</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5020247130474411</v>
+        <v>1.118528851177203</v>
       </c>
       <c r="D120" t="n">
-        <v>9.231981472570977</v>
+        <v>4.748134913488713</v>
       </c>
     </row>
     <row r="121">
@@ -2055,13 +2055,13 @@
         <v>9.211809045226131</v>
       </c>
       <c r="B121" t="n">
-        <v>5.638125420366965e-08</v>
+        <v>1.09169133560402e-07</v>
       </c>
       <c r="C121" t="n">
-        <v>0.504190943385518</v>
+        <v>1.12238848120269</v>
       </c>
       <c r="D121" t="n">
-        <v>9.274828027967629</v>
+        <v>4.772890231212143</v>
       </c>
     </row>
     <row r="122">
@@ -2069,13 +2069,13 @@
         <v>9.246231155778894</v>
       </c>
       <c r="B122" t="n">
-        <v>5.619738988885417e-08</v>
+        <v>1.087590564030125e-07</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5063975473835012</v>
+        <v>1.126335012954774</v>
       </c>
       <c r="D122" t="n">
-        <v>9.316432834661947</v>
+        <v>4.796994280659308</v>
       </c>
     </row>
     <row r="123">
@@ -2083,13 +2083,13 @@
         <v>9.280653266331658</v>
       </c>
       <c r="B123" t="n">
-        <v>5.60212764509715e-08</v>
+        <v>1.083653070689896e-07</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5086440985787751</v>
+        <v>1.130366810994787</v>
       </c>
       <c r="D123" t="n">
-        <v>9.356809970494909</v>
+        <v>4.820453106226175</v>
       </c>
     </row>
     <row r="124">
@@ -2097,13 +2097,13 @@
         <v>9.315075376884423</v>
       </c>
       <c r="B124" t="n">
-        <v>5.585287317433284e-08</v>
+        <v>1.079876460172481e-07</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5109299008472032</v>
+        <v>1.134482261904173</v>
       </c>
       <c r="D124" t="n">
-        <v>9.395967553089728</v>
+        <v>4.843272517928932</v>
       </c>
     </row>
     <row r="125">
@@ -2111,13 +2111,13 @@
         <v>9.349497487437187</v>
       </c>
       <c r="B125" t="n">
-        <v>5.569183398556724e-08</v>
+        <v>1.076250780216389e-07</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5132550337004539</v>
+        <v>1.138679812226455</v>
       </c>
       <c r="D125" t="n">
-        <v>9.433930045463791</v>
+        <v>4.865458282930041</v>
       </c>
     </row>
     <row r="126">
@@ -2125,13 +2125,13 @@
         <v>9.383919597989951</v>
       </c>
       <c r="B126" t="n">
-        <v>5.553804898212357e-08</v>
+        <v>1.072776868096008e-07</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5156183859708267</v>
+        <v>1.142958418572342</v>
       </c>
       <c r="D126" t="n">
-        <v>9.470697650779917</v>
+        <v>4.887017939183624</v>
       </c>
     </row>
     <row r="127">
@@ -2139,13 +2139,13 @@
         <v>9.418341708542714</v>
       </c>
       <c r="B127" t="n">
-        <v>5.539111796114438e-08</v>
+        <v>1.069444224776017e-07</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5180195215372358</v>
+        <v>1.147316548044331</v>
       </c>
       <c r="D127" t="n">
-        <v>9.50628306014643</v>
+        <v>4.907957191057156</v>
       </c>
     </row>
     <row r="128">
@@ -2153,13 +2153,13 @@
         <v>9.452763819095477</v>
       </c>
       <c r="B128" t="n">
-        <v>5.525097262662942e-08</v>
+        <v>1.066254666327381e-07</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5204583922527888</v>
+        <v>1.15175255326556</v>
       </c>
       <c r="D128" t="n">
-        <v>9.540706774366873</v>
+        <v>4.92828118333317</v>
       </c>
     </row>
     <row r="129">
@@ -2167,13 +2167,13 @@
         <v>9.487185929648241</v>
       </c>
       <c r="B129" t="n">
-        <v>5.51173296304716e-08</v>
+        <v>1.063199339808488e-07</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5229339242700428</v>
+        <v>1.156265840446348</v>
       </c>
       <c r="D129" t="n">
-        <v>9.573968358044247</v>
+        <v>4.94799884471511</v>
       </c>
     </row>
     <row r="130">
@@ -2181,13 +2181,13 @@
         <v>9.521608040201006</v>
       </c>
       <c r="B130" t="n">
-        <v>5.499025855092544e-08</v>
+        <v>1.060275889005204e-07</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5254467716125361</v>
+        <v>1.16085470195716</v>
       </c>
       <c r="D130" t="n">
-        <v>9.606102677100685</v>
+        <v>4.967115155271829</v>
       </c>
     </row>
     <row r="131">
@@ -2195,13 +2195,13 @@
         <v>9.55603015075377</v>
       </c>
       <c r="B131" t="n">
-        <v>5.486864318792112e-08</v>
+        <v>1.057481250005461e-07</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5279913298194227</v>
+        <v>1.165518077744819</v>
       </c>
       <c r="D131" t="n">
-        <v>9.637017788089196</v>
+        <v>4.985636900402316</v>
       </c>
     </row>
     <row r="132">
@@ -2209,13 +2209,13 @@
         <v>9.590452261306533</v>
       </c>
       <c r="B132" t="n">
-        <v>5.475387896487929e-08</v>
+        <v>1.054810915356838e-07</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5305774010223312</v>
+        <v>1.170254892937403</v>
       </c>
       <c r="D132" t="n">
-        <v>9.666932233943765</v>
+        <v>5.003570260499754</v>
       </c>
     </row>
     <row r="133">
@@ -2223,13 +2223,13 @@
         <v>9.624874371859297</v>
       </c>
       <c r="B133" t="n">
-        <v>5.464468420026525e-08</v>
+        <v>1.052261075886941e-07</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5331970664608817</v>
+        <v>1.175063366958726</v>
       </c>
       <c r="D133" t="n">
-        <v>9.695706242828258</v>
+        <v>5.020922361223181</v>
       </c>
     </row>
     <row r="134">
@@ -2237,13 +2237,13 @@
         <v>9.65929648241206</v>
       </c>
       <c r="B134" t="n">
-        <v>5.454132961991582e-08</v>
+        <v>1.049829034802943e-07</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5358536025869555</v>
+        <v>1.179943194542771</v>
       </c>
       <c r="D134" t="n">
-        <v>9.723427288078694</v>
+        <v>5.037700171162017</v>
       </c>
     </row>
     <row r="135">
@@ -2251,13 +2251,13 @@
         <v>9.693718592964824</v>
       </c>
       <c r="B135" t="n">
-        <v>5.444389135871349e-08</v>
+        <v>1.047512483441361e-07</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5385460725974685</v>
+        <v>1.1848930513172</v>
       </c>
       <c r="D135" t="n">
-        <v>9.750096551237217</v>
+        <v>5.053908987273332</v>
       </c>
     </row>
     <row r="136">
@@ -2265,13 +2265,13 @@
         <v>9.728140703517589</v>
       </c>
       <c r="B136" t="n">
-        <v>5.435147573332454e-08</v>
+        <v>1.045301492656384e-07</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5412709836653964</v>
+        <v>1.18991193956029</v>
       </c>
       <c r="D136" t="n">
-        <v>9.775661758118614</v>
+        <v>5.069558281071163</v>
       </c>
     </row>
     <row r="137">
@@ -2279,13 +2279,13 @@
         <v>9.762562814070353</v>
       </c>
       <c r="B137" t="n">
-        <v>5.426451080240482e-08</v>
+        <v>1.043204409854787e-07</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5440316982670275</v>
+        <v>1.19499876561376</v>
       </c>
       <c r="D137" t="n">
-        <v>9.800212525458704</v>
+        <v>5.084652715470821</v>
       </c>
     </row>
     <row r="138">
@@ -2293,13 +2293,13 @@
         <v>9.796984924623116</v>
       </c>
       <c r="B138" t="n">
-        <v>5.41826341433245e-08</v>
+        <v>1.041211912396586e-07</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5468256716350386</v>
+        <v>1.200153415668551</v>
       </c>
       <c r="D138" t="n">
-        <v>9.823715691041727</v>
+        <v>5.099202677678788</v>
       </c>
     </row>
     <row r="139">
@@ -2307,13 +2307,13 @@
         <v>9.831407035175879</v>
       </c>
       <c r="B139" t="n">
-        <v>5.410560025412578e-08</v>
+        <v>1.039318066936678e-07</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5496526317652973</v>
+        <v>1.205373977044574</v>
       </c>
       <c r="D139" t="n">
-        <v>9.846184436197952</v>
+        <v>5.113211363278656</v>
       </c>
     </row>
     <row r="140">
@@ -2321,13 +2321,13 @@
         <v>9.865829145728643</v>
       </c>
       <c r="B140" t="n">
-        <v>5.403353864840727e-08</v>
+        <v>1.037527466658542e-07</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5525134356943985</v>
+        <v>1.210660840488157</v>
       </c>
       <c r="D140" t="n">
-        <v>9.867656795138844</v>
+        <v>5.126690668574291</v>
       </c>
     </row>
     <row r="141">
@@ -2335,13 +2335,13 @@
         <v>9.900251256281408</v>
       </c>
       <c r="B141" t="n">
-        <v>5.396627132464007e-08</v>
+        <v>1.03583037291558e-07</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5554076036869985</v>
+        <v>1.216010088835239</v>
       </c>
       <c r="D141" t="n">
-        <v>9.888141305128702</v>
+        <v>5.139635341618516</v>
       </c>
     </row>
     <row r="142">
@@ -2349,13 +2349,13 @@
         <v>9.934673366834172</v>
       </c>
       <c r="B142" t="n">
-        <v>5.39035772860493e-08</v>
+        <v>1.034229633583681e-07</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5583344647828472</v>
+        <v>1.221424016376309</v>
       </c>
       <c r="D142" t="n">
-        <v>9.907642143225631</v>
+        <v>5.152064906130295</v>
       </c>
     </row>
     <row r="143">
@@ -2363,13 +2363,13 @@
         <v>9.969095477386935</v>
       </c>
       <c r="B143" t="n">
-        <v>5.384541287855932e-08</v>
+        <v>1.032720341655719e-07</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5612941154130913</v>
+        <v>1.226900439350318</v>
       </c>
       <c r="D143" t="n">
-        <v>9.926181164326605</v>
+        <v>5.163980780635864</v>
       </c>
     </row>
     <row r="144">
@@ -2377,13 +2377,13 @@
         <v>10.0035175879397</v>
       </c>
       <c r="B144" t="n">
-        <v>5.3791703748323e-08</v>
+        <v>1.031300668786704e-07</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5642861569071466</v>
+        <v>1.232439340053603</v>
       </c>
       <c r="D144" t="n">
-        <v>9.94376770661837</v>
+        <v>5.17539301248394</v>
       </c>
     </row>
     <row r="145">
@@ -2391,13 +2391,13 @@
         <v>10.03793969849246</v>
       </c>
       <c r="B145" t="n">
-        <v>5.374236613649348e-08</v>
+        <v>1.029967525496033e-07</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5673103445046946</v>
+        <v>1.238038674451478</v>
       </c>
       <c r="D145" t="n">
-        <v>9.960414960199085</v>
+        <v>5.186303573112403</v>
       </c>
     </row>
     <row r="146">
@@ -2405,13 +2405,13 @@
         <v>10.07236180904523</v>
       </c>
       <c r="B146" t="n">
-        <v>5.369710996371359e-08</v>
+        <v>1.028720573790663e-07</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5703662323058473</v>
+        <v>1.243698956668822</v>
       </c>
       <c r="D146" t="n">
-        <v>9.976130657345637</v>
+        <v>5.196724206683268</v>
       </c>
     </row>
     <row r="147">
@@ -2419,13 +2419,13 @@
         <v>10.10678391959799</v>
       </c>
       <c r="B147" t="n">
-        <v>5.365605136218316e-08</v>
+        <v>1.027556032444665e-07</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5734545154696946</v>
+        <v>1.249419134545858</v>
       </c>
       <c r="D147" t="n">
-        <v>9.990949601891774</v>
+        <v>5.206660539911022</v>
       </c>
     </row>
     <row r="148">
@@ -2433,13 +2433,13 @@
         <v>10.14120603015076</v>
       </c>
       <c r="B148" t="n">
-        <v>5.361900238687746e-08</v>
+        <v>1.026472600301129e-07</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5765737904645152</v>
+        <v>1.255197915801348</v>
       </c>
       <c r="D148" t="n">
-        <v>10.00485726355063</v>
+        <v>5.216117411304113</v>
       </c>
     </row>
     <row r="149">
@@ -2447,13 +2447,13 @@
         <v>10.17562814070352</v>
       </c>
       <c r="B149" t="n">
-        <v>5.358585761344904e-08</v>
+        <v>1.025468689441998e-07</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5797246391088975</v>
+        <v>1.261035370610611</v>
       </c>
       <c r="D149" t="n">
-        <v>10.01788478591054</v>
+        <v>5.225104451006072</v>
       </c>
     </row>
     <row r="150">
@@ -2461,13 +2461,13 @@
         <v>10.21005025125628</v>
       </c>
       <c r="B150" t="n">
-        <v>5.355660112262412e-08</v>
+        <v>1.024541184118269e-07</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5829071747210113</v>
+        <v>1.266930241252596</v>
       </c>
       <c r="D150" t="n">
-        <v>10.03005163116597</v>
+        <v>5.233626187951089</v>
       </c>
     </row>
     <row r="151">
@@ -2475,13 +2475,13 @@
         <v>10.24447236180904</v>
       </c>
       <c r="B151" t="n">
-        <v>5.353099653662961e-08</v>
+        <v>1.023688822184838e-07</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5861196944181954</v>
+        <v>1.272882219802139</v>
       </c>
       <c r="D151" t="n">
-        <v>10.04133747526933</v>
+        <v>5.241691006917693</v>
       </c>
     </row>
     <row r="152">
@@ -2489,13 +2489,13 @@
         <v>10.27889447236181</v>
       </c>
       <c r="B152" t="n">
-        <v>5.350913208708775e-08</v>
+        <v>1.02291090275508e-07</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5893635063577217</v>
+        <v>1.278890328476275</v>
       </c>
       <c r="D152" t="n">
-        <v>10.05178784838268</v>
+        <v>5.249304195827952</v>
       </c>
     </row>
     <row r="153">
@@ -2503,13 +2503,13 @@
         <v>10.31331658291457</v>
       </c>
       <c r="B153" t="n">
-        <v>5.349090295202629e-08</v>
+        <v>1.02220427493211e-07</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5926384222295898</v>
+        <v>1.284954206719033</v>
       </c>
       <c r="D153" t="n">
-        <v>10.06141629419994</v>
+        <v>5.256473729853952</v>
       </c>
     </row>
     <row r="154">
@@ -2517,13 +2517,13 @@
         <v>10.34773869346734</v>
       </c>
       <c r="B154" t="n">
-        <v>5.347610137363672e-08</v>
+        <v>1.021567810057554e-07</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5959429805063753</v>
+        <v>1.291073269663083</v>
       </c>
       <c r="D154" t="n">
-        <v>10.0702061944748</v>
+        <v>5.263206368348403</v>
       </c>
     </row>
     <row r="155">
@@ -2531,13 +2531,13 @@
         <v>10.3821608040201</v>
       </c>
       <c r="B155" t="n">
-        <v>5.34647428385124e-08</v>
+        <v>1.02100004896517e-07</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5992780497573966</v>
+        <v>1.297246608890096</v>
       </c>
       <c r="D155" t="n">
-        <v>10.07819351974631</v>
+        <v>5.269507333622449</v>
       </c>
     </row>
     <row r="156">
@@ -2545,13 +2545,13 @@
         <v>10.41658291457286</v>
       </c>
       <c r="B156" t="n">
-        <v>5.345683092823588e-08</v>
+        <v>1.02049912769104e-07</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6026438871098142</v>
+        <v>1.303473879455062</v>
       </c>
       <c r="D156" t="n">
-        <v>10.08539998659532</v>
+        <v>5.275384517530401</v>
       </c>
     </row>
     <row r="157">
@@ -2559,13 +2559,13 @@
         <v>10.45100502512563</v>
       </c>
       <c r="B157" t="n">
-        <v>5.345213228118029e-08</v>
+        <v>1.020063244197075e-07</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6060387735793596</v>
+        <v>1.309754102506192</v>
       </c>
       <c r="D157" t="n">
-        <v>10.09180318974147</v>
+        <v>5.280842516805201</v>
       </c>
     </row>
     <row r="158">
@@ -2573,13 +2573,13 @@
         <v>10.48542713567839</v>
       </c>
       <c r="B158" t="n">
-        <v>5.345069202620052e-08</v>
+        <v>1.019691888888259e-07</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6094640334552556</v>
+        <v>1.316087405242835</v>
       </c>
       <c r="D158" t="n">
-        <v>10.09744837151363</v>
+        <v>5.285891083657028</v>
       </c>
     </row>
     <row r="159">
@@ -2587,13 +2587,13 @@
         <v>10.51984924623116</v>
       </c>
       <c r="B159" t="n">
-        <v>5.345244581368905e-08</v>
+        <v>1.019382973377027e-07</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6129189351585244</v>
+        <v>1.322472736459196</v>
       </c>
       <c r="D159" t="n">
-        <v>10.10233519019077</v>
+        <v>5.290534316950671</v>
       </c>
     </row>
     <row r="160">
@@ -2601,13 +2601,13 @@
         <v>10.55427135678392</v>
       </c>
       <c r="B160" t="n">
-        <v>5.345725312002058e-08</v>
+        <v>1.019135297109348e-07</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6164037131723247</v>
+        <v>1.32890977559832</v>
       </c>
       <c r="D160" t="n">
-        <v>10.10648362912984</v>
+        <v>5.29478003677557</v>
       </c>
     </row>
     <row r="161">
@@ -2615,13 +2615,13 @@
         <v>10.58869346733668</v>
       </c>
       <c r="B161" t="n">
-        <v>5.346514441323422e-08</v>
+        <v>1.018947538913186e-07</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6199176507783101</v>
+        <v>1.335397732940037</v>
       </c>
       <c r="D161" t="n">
-        <v>10.10989369955392</v>
+        <v>5.298633010432684</v>
       </c>
     </row>
     <row r="162">
@@ -2629,13 +2629,13 @@
         <v>10.62311557788945</v>
       </c>
       <c r="B162" t="n">
-        <v>5.347599659859807e-08</v>
+        <v>1.018818109145811e-07</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6234608004711869</v>
+        <v>1.341935923220718</v>
       </c>
       <c r="D162" t="n">
-        <v>10.11258030542914</v>
+        <v>5.302100342109184</v>
       </c>
     </row>
     <row r="163">
@@ -2643,13 +2643,13 @@
         <v>10.65753768844221</v>
       </c>
       <c r="B163" t="n">
-        <v>5.348969707922114e-08</v>
+        <v>1.0187469700895e-07</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6270329030982938</v>
+        <v>1.348525117662497</v>
       </c>
       <c r="D163" t="n">
-        <v>10.11455536234512</v>
+        <v>5.305191409090527</v>
       </c>
     </row>
     <row r="164">
@@ -2657,13 +2657,13 @@
         <v>10.69195979899498</v>
       </c>
       <c r="B164" t="n">
-        <v>5.350633761323368e-08</v>
+        <v>1.018730944770656e-07</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6306343434752094</v>
+        <v>1.355162920600079</v>
       </c>
       <c r="D164" t="n">
-        <v>10.1158359985256</v>
+        <v>5.307905884806791</v>
       </c>
     </row>
     <row r="165">
@@ -2671,13 +2671,13 @@
         <v>10.72638190954774</v>
       </c>
       <c r="B165" t="n">
-        <v>5.352575616209098e-08</v>
+        <v>1.018770325520132e-07</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6342648000879506</v>
+        <v>1.361850119262282</v>
       </c>
       <c r="D165" t="n">
-        <v>10.1164355347995</v>
+        <v>5.310254770841861</v>
       </c>
     </row>
     <row r="166">
@@ -2685,13 +2685,13 @@
         <v>10.7608040201005</v>
       </c>
       <c r="B166" t="n">
-        <v>5.354790630566767e-08</v>
+        <v>1.018864624498281e-07</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6379237853564704</v>
+        <v>1.368586003821631</v>
       </c>
       <c r="D166" t="n">
-        <v>10.11635470897088</v>
+        <v>5.312243698377819</v>
       </c>
     </row>
     <row r="167">
@@ -2699,13 +2699,13 @@
         <v>10.79522613065327</v>
       </c>
       <c r="B167" t="n">
-        <v>5.35728528214054e-08</v>
+        <v>1.019010744360657e-07</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6416122297054406</v>
+        <v>1.375370800109236</v>
       </c>
       <c r="D167" t="n">
-        <v>10.11563049350657</v>
+        <v>5.313881910157227</v>
       </c>
     </row>
     <row r="168">
@@ -2713,13 +2713,13 @@
         <v>10.82964824120603</v>
       </c>
       <c r="B168" t="n">
-        <v>5.360032274217082e-08</v>
+        <v>1.019207466456796e-07</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6453282746659</v>
+        <v>1.382201083822616</v>
       </c>
       <c r="D168" t="n">
-        <v>10.11423030401521</v>
+        <v>5.315162182290776</v>
       </c>
     </row>
     <row r="169">
@@ -2727,13 +2727,13 @@
         <v>10.86407035175879</v>
       </c>
       <c r="B169" t="n">
-        <v>5.363051572907747e-08</v>
+        <v>1.019456093011294e-07</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6490737313190263</v>
+        <v>1.389079815004499</v>
       </c>
       <c r="D169" t="n">
-        <v>10.11221125957676</v>
+        <v>5.316105702921528</v>
       </c>
     </row>
     <row r="170">
@@ -2741,13 +2741,13 @@
         <v>10.89849246231156</v>
       </c>
       <c r="B170" t="n">
-        <v>5.366312710712688e-08</v>
+        <v>1.019753814728446e-07</v>
       </c>
       <c r="C170" t="n">
-        <v>0.652846298786865</v>
+        <v>1.396004953778912</v>
       </c>
       <c r="D170" t="n">
-        <v>10.10953593993463</v>
+        <v>5.316709945172679</v>
       </c>
     </row>
     <row r="171">
@@ -2755,13 +2755,13 @@
         <v>10.93291457286432</v>
       </c>
       <c r="B171" t="n">
-        <v>5.369834017803333e-08</v>
+        <v>1.020100064812175e-07</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6566479686423259</v>
+        <v>1.402976488406142</v>
       </c>
       <c r="D171" t="n">
-        <v>10.10626245342008</v>
+        <v>5.316985675110485</v>
       </c>
     </row>
     <row r="172">
@@ -2769,13 +2769,13 @@
         <v>10.96733668341709</v>
       </c>
       <c r="B172" t="n">
-        <v>5.373593889891757e-08</v>
+        <v>1.020495057853807e-07</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6604772980098446</v>
+        <v>1.409993979369791</v>
       </c>
       <c r="D172" t="n">
-        <v>10.1023703312593</v>
+        <v>5.316937114665228</v>
       </c>
     </row>
     <row r="173">
@@ -2783,13 +2783,13 @@
         <v>11.00175879396985</v>
       </c>
       <c r="B173" t="n">
-        <v>5.377605244992782e-08</v>
+        <v>1.020936333607272e-07</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6643355507717879</v>
+        <v>1.417057621221262</v>
       </c>
       <c r="D173" t="n">
-        <v>10.09790186418766</v>
+        <v>5.316572262070725</v>
       </c>
     </row>
     <row r="174">
@@ -2797,13 +2797,13 @@
         <v>11.03618090452261</v>
       </c>
       <c r="B174" t="n">
-        <v>5.38185514568482e-08</v>
+        <v>1.021423011891176e-07</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6682215493577811</v>
+        <v>1.424163397765325</v>
       </c>
       <c r="D174" t="n">
-        <v>10.0928424238634</v>
+        <v>5.315881144078055</v>
       </c>
     </row>
     <row r="175">
@@ -2811,13 +2811,13 @@
         <v>11.07060301507538</v>
       </c>
       <c r="B175" t="n">
-        <v>5.386335538726883e-08</v>
+        <v>1.021955407903652e-07</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6721354264777876</v>
+        <v>1.431316011756008</v>
       </c>
       <c r="D175" t="n">
-        <v>10.08720545843744</v>
+        <v>5.31489258920688</v>
       </c>
     </row>
     <row r="176">
@@ -2825,13 +2825,13 @@
         <v>11.10502512562814</v>
       </c>
       <c r="B176" t="n">
-        <v>5.391048311983185e-08</v>
+        <v>1.022532022903042e-07</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6760771071947331</v>
+        <v>1.438512088321778</v>
       </c>
       <c r="D176" t="n">
-        <v>10.0810104070264</v>
+        <v>5.313597743013162</v>
       </c>
     </row>
     <row r="177">
@@ -2839,13 +2839,13 @@
         <v>11.1394472361809</v>
       </c>
       <c r="B177" t="n">
-        <v>5.395981804568691e-08</v>
+        <v>1.023151208532496e-07</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6800462880394808</v>
+        <v>1.445751989780883</v>
       </c>
       <c r="D177" t="n">
-        <v>10.07425371264934</v>
+        <v>5.312008903494029</v>
       </c>
     </row>
     <row r="178">
@@ -2853,13 +2853,13 @@
         <v>11.17386934673367</v>
       </c>
       <c r="B178" t="n">
-        <v>5.401139806759124e-08</v>
+        <v>1.023812886248382e-07</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6840432058008499</v>
+        <v>1.453034563858479</v>
       </c>
       <c r="D178" t="n">
-        <v>10.06695567656688</v>
+        <v>5.310124636386806</v>
       </c>
     </row>
     <row r="179">
@@ -2867,13 +2867,13 @@
         <v>11.20829145728643</v>
       </c>
       <c r="B179" t="n">
-        <v>5.40651981438742e-08</v>
+        <v>1.024517064420793e-07</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6880677687458986</v>
+        <v>1.46036073760857</v>
       </c>
       <c r="D179" t="n">
-        <v>10.05912635070057</v>
+        <v>5.307957617659871</v>
       </c>
     </row>
     <row r="180">
@@ -2881,13 +2881,13 @@
         <v>11.2427135678392</v>
       </c>
       <c r="B180" t="n">
-        <v>5.41211603487876e-08</v>
+        <v>1.025262153504648e-07</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6921204085140684</v>
+        <v>1.467729445985847</v>
       </c>
       <c r="D180" t="n">
-        <v>10.05078827960322</v>
+        <v>5.305509883014643</v>
       </c>
     </row>
     <row r="181">
@@ -2895,13 +2895,13 @@
         <v>11.27713567839196</v>
       </c>
       <c r="B181" t="n">
-        <v>5.417914722286991e-08</v>
+        <v>1.026046070470808e-07</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6961992929441775</v>
+        <v>1.475138611051613</v>
       </c>
       <c r="D181" t="n">
-        <v>10.04190941077599</v>
+        <v>5.302780659583602</v>
       </c>
     </row>
     <row r="182">
@@ -2909,13 +2909,13 @@
         <v>11.31155778894473</v>
       </c>
       <c r="B182" t="n">
-        <v>5.423886971487148e-08</v>
+        <v>1.02687073251763e-07</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7003018592572805</v>
+        <v>1.482590840460687</v>
       </c>
       <c r="D182" t="n">
-        <v>10.03244453341466</v>
+        <v>5.299786011738113</v>
       </c>
     </row>
     <row r="183">
@@ -2923,13 +2923,13 @@
         <v>11.34597989949749</v>
       </c>
       <c r="B183" t="n">
-        <v>5.430112615602873e-08</v>
+        <v>1.027734083454254e-07</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7044366210826615</v>
+        <v>1.490084105679346</v>
       </c>
       <c r="D183" t="n">
-        <v>10.0225975854981</v>
+        <v>5.296525234797977</v>
       </c>
     </row>
     <row r="184">
@@ -2937,13 +2937,13 @@
         <v>11.38040201005025</v>
       </c>
       <c r="B184" t="n">
-        <v>5.436576728701065e-08</v>
+        <v>1.028635136827141e-07</v>
       </c>
       <c r="C184" t="n">
-        <v>0.708602721283197</v>
+        <v>1.497618451868527</v>
       </c>
       <c r="D184" t="n">
-        <v>10.01235950323891</v>
+        <v>5.29300464031481</v>
       </c>
     </row>
     <row r="185">
@@ -2951,13 +2951,13 @@
         <v>11.41482412060301</v>
       </c>
       <c r="B185" t="n">
-        <v>5.443159734337855e-08</v>
+        <v>1.029577026369609e-07</v>
       </c>
       <c r="C185" t="n">
-        <v>0.712787511332222</v>
+        <v>1.505196266194187</v>
       </c>
       <c r="D185" t="n">
-        <v>10.00145376781545</v>
+        <v>5.289242344116964</v>
       </c>
     </row>
     <row r="186">
@@ -2965,13 +2965,13 @@
         <v>11.44924623115578</v>
       </c>
       <c r="B186" t="n">
-        <v>5.449964393769914e-08</v>
+        <v>1.030551217176881e-07</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7170019433113132</v>
+        <v>1.512808978005305</v>
       </c>
       <c r="D186" t="n">
-        <v>9.990144061314906</v>
+        <v>5.285206027766006</v>
       </c>
     </row>
     <row r="187">
@@ -2979,13 +2979,13 @@
         <v>11.48366834170854</v>
       </c>
       <c r="B187" t="n">
-        <v>5.456987206753194e-08</v>
+        <v>1.031561547454637e-07</v>
       </c>
       <c r="C187" t="n">
-        <v>0.721246133635122</v>
+        <v>1.520462281951552</v>
       </c>
       <c r="D187" t="n">
-        <v>9.978440370966483</v>
+        <v>5.280928146251973</v>
       </c>
     </row>
     <row r="188">
@@ -2993,13 +2993,13 @@
         <v>11.51809045226131</v>
       </c>
       <c r="B188" t="n">
-        <v>5.464194319179056e-08</v>
+        <v>1.032609482270623e-07</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7255165014439272</v>
+        <v>1.528157108517862</v>
       </c>
       <c r="D188" t="n">
-        <v>9.966274266673068</v>
+        <v>5.276419555511475</v>
       </c>
     </row>
     <row r="189">
@@ -3007,13 +3007,13 @@
         <v>11.55251256281407</v>
       </c>
       <c r="B189" t="n">
-        <v>5.471575692864794e-08</v>
+        <v>1.033694136942976e-07</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7298122722697846</v>
+        <v>1.535893105618882</v>
       </c>
       <c r="D189" t="n">
-        <v>9.953635648073265</v>
+        <v>5.271684552647168</v>
       </c>
     </row>
     <row r="190">
@@ -3021,13 +3021,13 @@
         <v>11.58693467336683</v>
       </c>
       <c r="B190" t="n">
-        <v>5.479145345946386e-08</v>
+        <v>1.034806449099192e-07</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7341357718431628</v>
+        <v>1.543659905347333</v>
       </c>
       <c r="D190" t="n">
-        <v>9.940587767927607</v>
+        <v>5.266682734311947</v>
       </c>
     </row>
     <row r="191">
@@ -3035,13 +3035,13 @@
         <v>11.6213567839196</v>
       </c>
       <c r="B191" t="n">
-        <v>5.486887621233628e-08</v>
+        <v>1.035958293054322e-07</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7384847366028807</v>
+        <v>1.551471451047966</v>
       </c>
       <c r="D191" t="n">
-        <v>9.927090689114159</v>
+        <v>5.261483692240009</v>
       </c>
     </row>
     <row r="192">
@@ -3049,13 +3049,13 @@
         <v>11.65577889447236</v>
       </c>
       <c r="B192" t="n">
-        <v>5.494845243547599e-08</v>
+        <v>1.037141584113925e-07</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7428643745926516</v>
+        <v>1.559318938047584</v>
       </c>
       <c r="D192" t="n">
-        <v>9.913271440523422</v>
+        <v>5.256053271532839</v>
       </c>
     </row>
     <row r="193">
@@ -3063,13 +3063,13 @@
         <v>11.69020100502513</v>
       </c>
       <c r="B193" t="n">
-        <v>5.502937112285486e-08</v>
+        <v>1.03835964970584e-07</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7472657438609732</v>
+        <v>1.567206019229105</v>
       </c>
       <c r="D193" t="n">
-        <v>9.898940104355841</v>
+        <v>5.250414692061416</v>
       </c>
     </row>
     <row r="194">
@@ -3077,13 +3077,13 @@
         <v>11.72462311557789</v>
       </c>
       <c r="B194" t="n">
-        <v>5.511220394641415e-08</v>
+        <v>1.039603820212784e-07</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7516959405722895</v>
+        <v>1.575125641405876</v>
       </c>
       <c r="D194" t="n">
-        <v>9.884262903288061</v>
+        <v>5.244542195862543</v>
       </c>
     </row>
     <row r="195">
@@ -3091,13 +3091,13 @@
         <v>11.75904522613065</v>
       </c>
       <c r="B195" t="n">
-        <v>5.519669069012244e-08</v>
+        <v>1.040882301901158e-07</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7561517282725245</v>
+        <v>1.583081722724188</v>
       </c>
       <c r="D195" t="n">
-        <v>9.869180129061318</v>
+        <v>5.238457625487434</v>
       </c>
     </row>
     <row r="196">
@@ -3105,13 +3105,13 @@
         <v>11.79346733668342</v>
       </c>
       <c r="B196" t="n">
-        <v>5.528293357658535e-08</v>
+        <v>1.042195311207966e-07</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7606347668371484</v>
+        <v>1.591081173171101</v>
       </c>
       <c r="D196" t="n">
-        <v>9.853735334583837</v>
+        <v>5.232201695802948</v>
       </c>
     </row>
     <row r="197">
@@ -3119,13 +3119,13 @@
         <v>11.82788944723618</v>
       </c>
       <c r="B197" t="n">
-        <v>5.537084826694082e-08</v>
+        <v>1.043535981489666e-07</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7651440583616804</v>
+        <v>1.599112398042854</v>
       </c>
       <c r="D197" t="n">
-        <v>9.837917849982722</v>
+        <v>5.225725728233016</v>
       </c>
     </row>
     <row r="198">
@@ -3133,13 +3133,13 @@
         <v>11.86231155778895</v>
       </c>
       <c r="B198" t="n">
-        <v>5.546033185718165e-08</v>
+        <v>1.044907603871872e-07</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7696790324472128</v>
+        <v>1.607180593021657</v>
       </c>
       <c r="D198" t="n">
-        <v>9.821722835483946</v>
+        <v>5.219059105028464</v>
       </c>
     </row>
     <row r="199">
@@ -3147,13 +3147,13 @@
         <v>11.89673366834171</v>
       </c>
       <c r="B199" t="n">
-        <v>5.555150629567161e-08</v>
+        <v>1.046310872908644e-07</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7742408140775707</v>
+        <v>1.615286490588507</v>
       </c>
       <c r="D199" t="n">
-        <v>9.805184404893593</v>
+        <v>5.212210967158558</v>
       </c>
     </row>
     <row r="200">
@@ -3161,13 +3161,13 @@
         <v>11.93115577889447</v>
       </c>
       <c r="B200" t="n">
-        <v>5.564425223165969e-08</v>
+        <v>1.047738811861575e-07</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7788284639756171</v>
+        <v>1.623422333892579</v>
       </c>
       <c r="D200" t="n">
-        <v>9.788290974869584</v>
+        <v>5.205152446191097</v>
       </c>
     </row>
     <row r="201">
@@ -3175,13 +3175,13 @@
         <v>11.96557788944724</v>
       </c>
       <c r="B201" t="n">
-        <v>5.573859267878608e-08</v>
+        <v>1.049207736706998e-07</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7834425612641664</v>
+        <v>1.631608320471449</v>
       </c>
       <c r="D201" t="n">
-        <v>9.771063297315882</v>
+        <v>5.197978779626715</v>
       </c>
     </row>
     <row r="202">
@@ -3189,13 +3189,13 @@
         <v>12</v>
       </c>
       <c r="B202" t="n">
-        <v>5.583449489074664e-08</v>
+        <v>1.050685067657348e-07</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7880825272139405</v>
+        <v>1.639803254053451</v>
       </c>
       <c r="D202" t="n">
-        <v>9.753498666768424</v>
+        <v>5.190512599253626</v>
       </c>
     </row>
   </sheetData>
